--- a/final_project/gru_gbrbm_H_per_2 (drop 0.2)/type2/pd_results_W20_H50_B16.xlsx
+++ b/final_project/gru_gbrbm_H_per_2 (drop 0.2)/type2/pd_results_W20_H50_B16.xlsx
@@ -502,25 +502,23 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.5454545454545454</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.3571428571428572</v>
-      </c>
+        <v>0.5495495495495496</v>
+      </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>0.9508196721311475</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.03333333333333333</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5375375375375375</v>
+        <v>0.5495495495495496</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6932270916334661</v>
+        <v>0.7093023255813954</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5075075075075075</v>
+        <v>0.4744744744744745</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -528,19 +526,19 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0.08307878158367181</v>
+        <v>0.1145006794721391</v>
       </c>
       <c r="J2" t="n">
-        <v>1081.646335420708</v>
+        <v>1488.051550988392</v>
       </c>
       <c r="K2" t="n">
-        <v>1715341.320484445</v>
+        <v>2845017.827711146</v>
       </c>
       <c r="L2" t="n">
-        <v>1309.71039565411</v>
+        <v>1686.718064085147</v>
       </c>
       <c r="M2" t="n">
-        <v>0.6810702389582488</v>
+        <v>0.471031890204113</v>
       </c>
     </row>
   </sheetData>
